--- a/data/taxi_time.xlsx
+++ b/data/taxi_time.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AC4053-E841-4FC6-860F-5503831760DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A97A9D7-0EC8-4940-8382-6208EE9953F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -607,15 +607,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E09F0750-8F15-4231-8BA1-11FC94B0A552}">
-  <dimension ref="A2:H3"/>
+  <dimension ref="A2:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -640,8 +640,11 @@
       <c r="H2">
         <v>2021</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -665,6 +668,9 @@
       </c>
       <c r="H3">
         <v>2.1</v>
+      </c>
+      <c r="I3">
+        <v>3.22</v>
       </c>
     </row>
   </sheetData>
